--- a/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Serie</t>
   </si>
@@ -398,6 +398,69 @@
   </si>
   <si>
     <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>02-07-2021</t>
+  </si>
+  <si>
+    <t>05-07-2021</t>
+  </si>
+  <si>
+    <t>06-07-2021</t>
+  </si>
+  <si>
+    <t>07-07-2021</t>
+  </si>
+  <si>
+    <t>08-07-2021</t>
+  </si>
+  <si>
+    <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -755,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2054,7 +2117,7 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>77109</v>
+        <v>77110</v>
       </c>
       <c r="C93">
         <v>13392</v>
@@ -2509,6 +2572,300 @@
       </c>
       <c r="D125">
         <v>66063</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>82298</v>
+      </c>
+      <c r="C126">
+        <v>14593</v>
+      </c>
+      <c r="D126">
+        <v>67705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>79998</v>
+      </c>
+      <c r="C127">
+        <v>14629</v>
+      </c>
+      <c r="D127">
+        <v>65369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>79661</v>
+      </c>
+      <c r="C128">
+        <v>14700</v>
+      </c>
+      <c r="D128">
+        <v>64962</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>79456</v>
+      </c>
+      <c r="C129">
+        <v>14696</v>
+      </c>
+      <c r="D129">
+        <v>64760</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>79710</v>
+      </c>
+      <c r="C130">
+        <v>14705</v>
+      </c>
+      <c r="D130">
+        <v>65005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>80116</v>
+      </c>
+      <c r="C131">
+        <v>14734</v>
+      </c>
+      <c r="D131">
+        <v>65381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>80161</v>
+      </c>
+      <c r="C132">
+        <v>14776</v>
+      </c>
+      <c r="D132">
+        <v>65385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>80177</v>
+      </c>
+      <c r="C133">
+        <v>14837</v>
+      </c>
+      <c r="D133">
+        <v>65341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>80022</v>
+      </c>
+      <c r="C134">
+        <v>14801</v>
+      </c>
+      <c r="D134">
+        <v>65221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135">
+        <v>80120</v>
+      </c>
+      <c r="C135">
+        <v>14822</v>
+      </c>
+      <c r="D135">
+        <v>65298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>79852</v>
+      </c>
+      <c r="C136">
+        <v>14813</v>
+      </c>
+      <c r="D136">
+        <v>65040</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137">
+        <v>80872</v>
+      </c>
+      <c r="C137">
+        <v>14880</v>
+      </c>
+      <c r="D137">
+        <v>65992</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>79889</v>
+      </c>
+      <c r="C138">
+        <v>14868</v>
+      </c>
+      <c r="D138">
+        <v>65020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>78852</v>
+      </c>
+      <c r="C139">
+        <v>14854</v>
+      </c>
+      <c r="D139">
+        <v>63998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>79563</v>
+      </c>
+      <c r="C140">
+        <v>14847</v>
+      </c>
+      <c r="D140">
+        <v>64716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>79922</v>
+      </c>
+      <c r="C141">
+        <v>14846</v>
+      </c>
+      <c r="D141">
+        <v>65076</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142">
+        <v>80881</v>
+      </c>
+      <c r="C142">
+        <v>14851</v>
+      </c>
+      <c r="D142">
+        <v>66030</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143">
+        <v>80394</v>
+      </c>
+      <c r="C143">
+        <v>14815</v>
+      </c>
+      <c r="D143">
+        <v>65579</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>81050</v>
+      </c>
+      <c r="C144">
+        <v>14777</v>
+      </c>
+      <c r="D144">
+        <v>66273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>82076</v>
+      </c>
+      <c r="C145">
+        <v>14773</v>
+      </c>
+      <c r="D145">
+        <v>67303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>81330</v>
+      </c>
+      <c r="C146">
+        <v>14804</v>
+      </c>
+      <c r="D146">
+        <v>66527</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Serie</t>
   </si>
@@ -461,6 +461,72 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -818,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2868,6 +2934,314 @@
         <v>66527</v>
       </c>
     </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>81041</v>
+      </c>
+      <c r="C147">
+        <v>14942</v>
+      </c>
+      <c r="D147">
+        <v>66098</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>81251</v>
+      </c>
+      <c r="C148">
+        <v>14926</v>
+      </c>
+      <c r="D148">
+        <v>66325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>81000</v>
+      </c>
+      <c r="C149">
+        <v>14936</v>
+      </c>
+      <c r="D149">
+        <v>66065</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>81151</v>
+      </c>
+      <c r="C150">
+        <v>14971</v>
+      </c>
+      <c r="D150">
+        <v>66180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>81017</v>
+      </c>
+      <c r="C151">
+        <v>15037</v>
+      </c>
+      <c r="D151">
+        <v>65980</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>81309</v>
+      </c>
+      <c r="C152">
+        <v>15127</v>
+      </c>
+      <c r="D152">
+        <v>66181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>80796</v>
+      </c>
+      <c r="C153">
+        <v>15111</v>
+      </c>
+      <c r="D153">
+        <v>65685</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>81059</v>
+      </c>
+      <c r="C154">
+        <v>15090</v>
+      </c>
+      <c r="D154">
+        <v>65970</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>80948</v>
+      </c>
+      <c r="C155">
+        <v>15068</v>
+      </c>
+      <c r="D155">
+        <v>65880</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>80429</v>
+      </c>
+      <c r="C156">
+        <v>15069</v>
+      </c>
+      <c r="D156">
+        <v>65359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>80378</v>
+      </c>
+      <c r="C157">
+        <v>15117</v>
+      </c>
+      <c r="D157">
+        <v>65261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>79931</v>
+      </c>
+      <c r="C158">
+        <v>15084</v>
+      </c>
+      <c r="D158">
+        <v>64847</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>79462</v>
+      </c>
+      <c r="C159">
+        <v>15049</v>
+      </c>
+      <c r="D159">
+        <v>64413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>79699</v>
+      </c>
+      <c r="C160">
+        <v>15027</v>
+      </c>
+      <c r="D160">
+        <v>64673</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>78833</v>
+      </c>
+      <c r="C161">
+        <v>15041</v>
+      </c>
+      <c r="D161">
+        <v>63792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162">
+        <v>78569</v>
+      </c>
+      <c r="C162">
+        <v>15063</v>
+      </c>
+      <c r="D162">
+        <v>63506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>78923</v>
+      </c>
+      <c r="C163">
+        <v>15025</v>
+      </c>
+      <c r="D163">
+        <v>63898</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>79662</v>
+      </c>
+      <c r="C164">
+        <v>14979</v>
+      </c>
+      <c r="D164">
+        <v>64683</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>79766</v>
+      </c>
+      <c r="C165">
+        <v>14947</v>
+      </c>
+      <c r="D165">
+        <v>64819</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>79609</v>
+      </c>
+      <c r="C166">
+        <v>14934</v>
+      </c>
+      <c r="D166">
+        <v>64675</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>80797</v>
+      </c>
+      <c r="C167">
+        <v>14963</v>
+      </c>
+      <c r="D167">
+        <v>65834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>80589</v>
+      </c>
+      <c r="C168">
+        <v>14967</v>
+      </c>
+      <c r="D168">
+        <v>65622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M1 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -527,6 +527,69 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -884,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3242,6 +3305,300 @@
         <v>65622</v>
       </c>
     </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>82232</v>
+      </c>
+      <c r="C169">
+        <v>14979</v>
+      </c>
+      <c r="D169">
+        <v>67253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>81053</v>
+      </c>
+      <c r="C170">
+        <v>15004</v>
+      </c>
+      <c r="D170">
+        <v>66049</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>80488</v>
+      </c>
+      <c r="C171">
+        <v>15035</v>
+      </c>
+      <c r="D171">
+        <v>65453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>80686</v>
+      </c>
+      <c r="C172">
+        <v>15173</v>
+      </c>
+      <c r="D172">
+        <v>65513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>79947</v>
+      </c>
+      <c r="C173">
+        <v>15181</v>
+      </c>
+      <c r="D173">
+        <v>64765</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>80249</v>
+      </c>
+      <c r="C174">
+        <v>15196</v>
+      </c>
+      <c r="D174">
+        <v>65053</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>81071</v>
+      </c>
+      <c r="C175">
+        <v>15218</v>
+      </c>
+      <c r="D175">
+        <v>65853</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>80101</v>
+      </c>
+      <c r="C176">
+        <v>15246</v>
+      </c>
+      <c r="D176">
+        <v>64854</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>79598</v>
+      </c>
+      <c r="C177">
+        <v>15287</v>
+      </c>
+      <c r="D177">
+        <v>64311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>79490</v>
+      </c>
+      <c r="C178">
+        <v>15261</v>
+      </c>
+      <c r="D178">
+        <v>64229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>79630</v>
+      </c>
+      <c r="C179">
+        <v>15281</v>
+      </c>
+      <c r="D179">
+        <v>64349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>79127</v>
+      </c>
+      <c r="C180">
+        <v>15329</v>
+      </c>
+      <c r="D180">
+        <v>63799</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>79254</v>
+      </c>
+      <c r="C181">
+        <v>15379</v>
+      </c>
+      <c r="D181">
+        <v>63875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182">
+        <v>78647</v>
+      </c>
+      <c r="C182">
+        <v>15330</v>
+      </c>
+      <c r="D182">
+        <v>63317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>78640</v>
+      </c>
+      <c r="C183">
+        <v>15286</v>
+      </c>
+      <c r="D183">
+        <v>63354</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>78525</v>
+      </c>
+      <c r="C184">
+        <v>15243</v>
+      </c>
+      <c r="D184">
+        <v>63282</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>78389</v>
+      </c>
+      <c r="C185">
+        <v>15201</v>
+      </c>
+      <c r="D185">
+        <v>63188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>78750</v>
+      </c>
+      <c r="C186">
+        <v>15176</v>
+      </c>
+      <c r="D186">
+        <v>63574</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>79151</v>
+      </c>
+      <c r="C187">
+        <v>15108</v>
+      </c>
+      <c r="D187">
+        <v>64043</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>80242</v>
+      </c>
+      <c r="C188">
+        <v>15072</v>
+      </c>
+      <c r="D188">
+        <v>65170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>79845</v>
+      </c>
+      <c r="C189">
+        <v>15093</v>
+      </c>
+      <c r="D189">
+        <v>64752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
